--- a/Facture Proforma.xlsx
+++ b/Facture Proforma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows 10\Desktop\Works\FaciQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2413327A-78A2-4F1E-A18E-D778C5CBD712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C01EF83-AFFB-446C-8060-B4E5811CD237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{633184CF-D94C-48A8-9CD1-239E4D5D3060}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Dure de realisation 90 jours</t>
-  </si>
-  <si>
-    <t>Commande : realisation d'application multiplatform FaciQuest</t>
-  </si>
-  <si>
-    <t>Facture Proforma N◦ 10-07-2024</t>
-  </si>
-  <si>
-    <t>Montant en Lettres : Deux cent cinquante  mille dinars algériens</t>
+    <t>Dure de realisation 21 jours</t>
+  </si>
+  <si>
+    <t>Montant en Lettres : Deux cent seize mille dinars algériens</t>
+  </si>
+  <si>
+    <t>Commande : realisation d'un  site dynamique pour Xoraql</t>
+  </si>
+  <si>
+    <t>Facture Proforma N◦ 20-09-2024</t>
   </si>
 </sst>
 </file>
@@ -163,12 +163,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -176,6 +170,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E08E6A-4D97-4C7A-8E40-B82446B19F49}">
   <dimension ref="A4:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,107 +516,108 @@
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="4" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="2">
-        <f>SUM(E12:E13)*0.25</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+        <f>SUM(E12:E13)*0.2</f>
+        <v>36000</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -625,53 +626,53 @@
       </c>
       <c r="E15" s="2">
         <f>SUM(E12:E14)</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
